--- a/PEP_2018_PEPANNRES_with_ann.xlsx
+++ b/PEP_2018_PEPANNRES_with_ann.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlatIron_User\DataScience\USPopulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlatIron_User\DataScience\mod4\dsc-mod-4-project-online-ds-ft-090919\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC9C4ED-9415-437A-A94A-3BBBF84D5801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB303D-D92A-4E7E-BFB6-6DCE41AE930C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEP_2018_PEPANNRES_with_ann" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PEP_2018_PEPANNRES_with_ann!$A$1:$N$946</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2317,9 +2320,6 @@
     <t>310M400US25720</t>
   </si>
   <si>
-    <t>Heber, UT Micro Area</t>
-  </si>
-  <si>
     <t>310M400US25740</t>
   </si>
   <si>
@@ -5732,12 +5732,15 @@
   </si>
   <si>
     <t>Zapata, TX Micro Area</t>
+  </si>
+  <si>
+    <t>Heber City, UT Micro Area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6571,10 +6574,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N946"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D954" sqref="D954"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -23130,7 +23135,7 @@
         <v>25720</v>
       </c>
       <c r="C377" t="s">
-        <v>765</v>
+        <v>1903</v>
       </c>
       <c r="D377">
         <v>23530</v>
@@ -23168,13 +23173,13 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B378">
         <v>25740</v>
       </c>
       <c r="C378" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D378">
         <v>74801</v>
@@ -23212,13 +23217,13 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B379">
         <v>25760</v>
       </c>
       <c r="C379" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D379">
         <v>21757</v>
@@ -23256,13 +23261,13 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B380">
         <v>25780</v>
       </c>
       <c r="C380" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D380">
         <v>45422</v>
@@ -23300,13 +23305,13 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B381">
         <v>25820</v>
       </c>
       <c r="C381" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D381">
         <v>19372</v>
@@ -23344,13 +23349,13 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B382">
         <v>25840</v>
       </c>
       <c r="C382" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D382">
         <v>87062</v>
@@ -23388,13 +23393,13 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B383">
         <v>25860</v>
       </c>
       <c r="C383" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D383">
         <v>365497</v>
@@ -23432,13 +23437,13 @@
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B384">
         <v>25880</v>
       </c>
       <c r="C384" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D384">
         <v>46688</v>
@@ -23476,13 +23481,13 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B385">
         <v>25900</v>
       </c>
       <c r="C385" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D385">
         <v>185079</v>
@@ -23520,13 +23525,13 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B386">
         <v>25940</v>
       </c>
       <c r="C386" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D386">
         <v>187010</v>
@@ -23564,13 +23569,13 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B387">
         <v>25980</v>
       </c>
       <c r="C387" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D387">
         <v>77917</v>
@@ -23608,13 +23613,13 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B388">
         <v>26020</v>
       </c>
       <c r="C388" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D388">
         <v>64727</v>
@@ -23652,13 +23657,13 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B389">
         <v>26090</v>
       </c>
       <c r="C389" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D389">
         <v>111408</v>
@@ -23696,13 +23701,13 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B390">
         <v>26140</v>
       </c>
       <c r="C390" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D390">
         <v>141236</v>
@@ -23740,13 +23745,13 @@
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B391">
         <v>26220</v>
       </c>
       <c r="C391" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D391">
         <v>22346</v>
@@ -23784,13 +23789,13 @@
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B392">
         <v>26260</v>
       </c>
       <c r="C392" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D392">
         <v>31606</v>
@@ -23828,13 +23833,13 @@
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B393">
         <v>26300</v>
       </c>
       <c r="C393" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D393">
         <v>96024</v>
@@ -23872,13 +23877,13 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B394">
         <v>26340</v>
       </c>
       <c r="C394" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D394">
         <v>38784</v>
@@ -23916,13 +23921,13 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B395">
         <v>26380</v>
       </c>
       <c r="C395" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D395">
         <v>208178</v>
@@ -23960,13 +23965,13 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B396">
         <v>26420</v>
       </c>
       <c r="C396" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D396">
         <v>5920416</v>
@@ -24004,13 +24009,13 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B397">
         <v>26460</v>
       </c>
       <c r="C397" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D397">
         <v>63096</v>
@@ -24048,13 +24053,13 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B398">
         <v>26500</v>
       </c>
       <c r="C398" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D398">
         <v>45913</v>
@@ -24092,13 +24097,13 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B399">
         <v>26540</v>
       </c>
       <c r="C399" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D399">
         <v>37124</v>
@@ -24136,13 +24141,13 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B400">
         <v>26580</v>
       </c>
       <c r="C400" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D400">
         <v>364908</v>
@@ -24180,13 +24185,13 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B401">
         <v>26620</v>
       </c>
       <c r="C401" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D401">
         <v>417593</v>
@@ -24224,13 +24229,13 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B402">
         <v>26660</v>
       </c>
       <c r="C402" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D402">
         <v>82446</v>
@@ -24268,13 +24273,13 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B403">
         <v>26700</v>
       </c>
       <c r="C403" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D403">
         <v>17398</v>
@@ -24312,13 +24317,13 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B404">
         <v>26740</v>
       </c>
       <c r="C404" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D404">
         <v>64511</v>
@@ -24356,13 +24361,13 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B405">
         <v>26780</v>
       </c>
       <c r="C405" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D405">
         <v>36651</v>
@@ -24400,13 +24405,13 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B406">
         <v>26820</v>
       </c>
       <c r="C406" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D406">
         <v>133265</v>
@@ -24444,13 +24449,13 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B407">
         <v>26860</v>
       </c>
       <c r="C407" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D407">
         <v>88880</v>
@@ -24488,13 +24493,13 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B408">
         <v>26900</v>
       </c>
       <c r="C408" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D408">
         <v>1887877</v>
@@ -24532,13 +24537,13 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B409">
         <v>26940</v>
       </c>
       <c r="C409" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D409">
         <v>29450</v>
@@ -24576,13 +24581,13 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B410">
         <v>26960</v>
       </c>
       <c r="C410" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D410">
         <v>63905</v>
@@ -24620,13 +24625,13 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B411">
         <v>26980</v>
       </c>
       <c r="C411" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D411">
         <v>152586</v>
@@ -24664,13 +24669,13 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B412">
         <v>27020</v>
       </c>
       <c r="C412" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D412">
         <v>30591</v>
@@ -24708,13 +24713,13 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B413">
         <v>27060</v>
       </c>
       <c r="C413" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D413">
         <v>101564</v>
@@ -24752,13 +24757,13 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B414">
         <v>27100</v>
       </c>
       <c r="C414" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D414">
         <v>160248</v>
@@ -24796,13 +24801,13 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B415">
         <v>27140</v>
       </c>
       <c r="C415" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D415">
         <v>567122</v>
@@ -24840,13 +24845,13 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B416">
         <v>27160</v>
       </c>
       <c r="C416" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D416">
         <v>33225</v>
@@ -24884,13 +24889,13 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B417">
         <v>27180</v>
       </c>
       <c r="C417" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D417">
         <v>130011</v>
@@ -24928,13 +24933,13 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B418">
         <v>27220</v>
       </c>
       <c r="C418" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D418">
         <v>31464</v>
@@ -24972,13 +24977,13 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B419">
         <v>27260</v>
       </c>
       <c r="C419" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D419">
         <v>1345596</v>
@@ -25016,13 +25021,13 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B420">
         <v>27300</v>
       </c>
       <c r="C420" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D420">
         <v>40902</v>
@@ -25060,13 +25065,13 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B421">
         <v>27340</v>
       </c>
       <c r="C421" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D421">
         <v>177772</v>
@@ -25104,13 +25109,13 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B422">
         <v>27380</v>
       </c>
       <c r="C422" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D422">
         <v>50845</v>
@@ -25148,13 +25153,13 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B423">
         <v>27420</v>
       </c>
       <c r="C423" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D423">
         <v>21100</v>
@@ -25192,13 +25197,13 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B424">
         <v>27460</v>
       </c>
       <c r="C424" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D424">
         <v>134905</v>
@@ -25236,13 +25241,13 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B425">
         <v>27500</v>
       </c>
       <c r="C425" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D425">
         <v>160331</v>
@@ -25280,13 +25285,13 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B426">
         <v>27540</v>
       </c>
       <c r="C426" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D426">
         <v>54734</v>
@@ -25324,13 +25329,13 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B427">
         <v>27580</v>
       </c>
       <c r="C427" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D427">
         <v>16642</v>
@@ -25368,13 +25373,13 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B428">
         <v>27600</v>
       </c>
       <c r="C428" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D428">
         <v>60485</v>
@@ -25412,13 +25417,13 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B429">
         <v>27620</v>
       </c>
       <c r="C429" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D429">
         <v>149807</v>
@@ -25456,13 +25461,13 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B430">
         <v>27660</v>
       </c>
       <c r="C430" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D430">
         <v>31594</v>
@@ -25500,13 +25505,13 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B431">
         <v>27700</v>
       </c>
       <c r="C431" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D431">
         <v>30099</v>
@@ -25544,13 +25549,13 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B432">
         <v>27740</v>
       </c>
       <c r="C432" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D432">
         <v>198716</v>
@@ -25588,13 +25593,13 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B433">
         <v>27780</v>
       </c>
       <c r="C433" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D433">
         <v>143679</v>
@@ -25632,13 +25637,13 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B434">
         <v>27860</v>
       </c>
       <c r="C434" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D434">
         <v>121026</v>
@@ -25676,13 +25681,13 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B435">
         <v>27900</v>
       </c>
       <c r="C435" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D435">
         <v>175518</v>
@@ -25720,13 +25725,13 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B436">
         <v>27920</v>
       </c>
       <c r="C436" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D436">
         <v>34362</v>
@@ -25764,13 +25769,13 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B437">
         <v>27940</v>
       </c>
       <c r="C437" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D437">
         <v>31275</v>
@@ -25808,13 +25813,13 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B438">
         <v>27980</v>
       </c>
       <c r="C438" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D438">
         <v>154924</v>
@@ -25852,13 +25857,13 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B439">
         <v>28020</v>
       </c>
       <c r="C439" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D439">
         <v>326589</v>
@@ -25896,13 +25901,13 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B440">
         <v>28060</v>
       </c>
       <c r="C440" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D440">
         <v>90928</v>
@@ -25940,13 +25945,13 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B441">
         <v>28100</v>
       </c>
       <c r="C441" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D441">
         <v>113449</v>
@@ -25984,13 +25989,13 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B442">
         <v>28140</v>
       </c>
       <c r="C442" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D442">
         <v>2009342</v>
@@ -26028,13 +26033,13 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B443">
         <v>28180</v>
       </c>
       <c r="C443" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D443">
         <v>67091</v>
@@ -26072,13 +26077,13 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B444">
         <v>28260</v>
       </c>
       <c r="C444" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D444">
         <v>52591</v>
@@ -26116,13 +26121,13 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B445">
         <v>28300</v>
       </c>
       <c r="C445" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D445">
         <v>77117</v>
@@ -26160,13 +26165,13 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B446">
         <v>28340</v>
       </c>
       <c r="C446" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D446">
         <v>47536</v>
@@ -26204,13 +26209,13 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B447">
         <v>28380</v>
       </c>
       <c r="C447" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D447">
         <v>31953</v>
@@ -26248,13 +26253,13 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B448">
         <v>28420</v>
       </c>
       <c r="C448" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D448">
         <v>253340</v>
@@ -26292,13 +26297,13 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B449">
         <v>28500</v>
       </c>
       <c r="C449" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D449">
         <v>49625</v>
@@ -26336,13 +26341,13 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B450">
         <v>28540</v>
       </c>
       <c r="C450" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D450">
         <v>13477</v>
@@ -26380,13 +26385,13 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B451">
         <v>28580</v>
       </c>
       <c r="C451" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D451">
         <v>73090</v>
@@ -26424,13 +26429,13 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B452">
         <v>28620</v>
       </c>
       <c r="C452" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D452">
         <v>38327</v>
@@ -26468,13 +26473,13 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B453">
         <v>28660</v>
       </c>
       <c r="C453" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D453">
         <v>405300</v>
@@ -26512,13 +26517,13 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B454">
         <v>28700</v>
       </c>
       <c r="C454" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D454">
         <v>309544</v>
@@ -26556,13 +26561,13 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B455">
         <v>28740</v>
       </c>
       <c r="C455" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D455">
         <v>182493</v>
@@ -26600,13 +26605,13 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B456">
         <v>28780</v>
       </c>
       <c r="C456" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D456">
         <v>32477</v>
@@ -26644,13 +26649,13 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B457">
         <v>28820</v>
       </c>
       <c r="C457" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D457">
         <v>59495</v>
@@ -26688,13 +26693,13 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B458">
         <v>28860</v>
       </c>
       <c r="C458" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D458">
         <v>30038</v>
@@ -26732,13 +26737,13 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B459">
         <v>28900</v>
       </c>
       <c r="C459" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D459">
         <v>66380</v>
@@ -26776,13 +26781,13 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B460">
         <v>28940</v>
       </c>
       <c r="C460" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D460">
         <v>837571</v>
@@ -26820,13 +26825,13 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B461">
         <v>29020</v>
       </c>
       <c r="C461" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D461">
         <v>82752</v>
@@ -26864,13 +26869,13 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B462">
         <v>29060</v>
       </c>
       <c r="C462" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D462">
         <v>60088</v>
@@ -26908,13 +26913,13 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B463">
         <v>29100</v>
       </c>
       <c r="C463" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D463">
         <v>133665</v>
@@ -26952,13 +26957,13 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B464">
         <v>29180</v>
       </c>
       <c r="C464" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D464">
         <v>466750</v>
@@ -26996,13 +27001,13 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B465">
         <v>29200</v>
       </c>
       <c r="C465" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D465">
         <v>201789</v>
@@ -27040,13 +27045,13 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B466">
         <v>29260</v>
       </c>
       <c r="C466" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D466">
         <v>25748</v>
@@ -27084,13 +27089,13 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B467">
         <v>29300</v>
       </c>
       <c r="C467" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D467">
         <v>67044</v>
@@ -27128,13 +27133,13 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B468">
         <v>29340</v>
       </c>
       <c r="C468" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D468">
         <v>199607</v>
@@ -27172,13 +27177,13 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B469">
         <v>29380</v>
       </c>
       <c r="C469" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D469">
         <v>67531</v>
@@ -27216,13 +27221,13 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B470">
         <v>29420</v>
       </c>
       <c r="C470" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D470">
         <v>200186</v>
@@ -27260,13 +27265,13 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B471">
         <v>29460</v>
       </c>
       <c r="C471" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D471">
         <v>602095</v>
@@ -27304,13 +27309,13 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B472">
         <v>29500</v>
       </c>
       <c r="C472" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D472">
         <v>13833</v>
@@ -27348,13 +27353,13 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B473">
         <v>29540</v>
       </c>
       <c r="C473" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D473">
         <v>519445</v>
@@ -27392,13 +27397,13 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B474">
         <v>29620</v>
       </c>
       <c r="C474" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D474">
         <v>464036</v>
@@ -27436,13 +27441,13 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B475">
         <v>29660</v>
       </c>
       <c r="C475" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D475">
         <v>36299</v>
@@ -27480,13 +27485,13 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B476">
         <v>29700</v>
       </c>
       <c r="C476" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D476">
         <v>250304</v>
@@ -27524,13 +27529,13 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B477">
         <v>29740</v>
       </c>
       <c r="C477" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D477">
         <v>209233</v>
@@ -27568,13 +27573,13 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B478">
         <v>29780</v>
       </c>
       <c r="C478" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D478">
         <v>29393</v>
@@ -27612,13 +27617,13 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B479">
         <v>29820</v>
       </c>
       <c r="C479" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D479">
         <v>1951269</v>
@@ -27656,13 +27661,13 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B480">
         <v>29860</v>
       </c>
       <c r="C480" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D480">
         <v>84823</v>
@@ -27700,13 +27705,13 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B481">
         <v>29900</v>
       </c>
       <c r="C481" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D481">
         <v>36157</v>
@@ -27744,13 +27749,13 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B482">
         <v>29940</v>
       </c>
       <c r="C482" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D482">
         <v>110826</v>
@@ -27788,13 +27793,13 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B483">
         <v>29980</v>
       </c>
       <c r="C483" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D483">
         <v>41869</v>
@@ -27832,13 +27837,13 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B484">
         <v>30020</v>
       </c>
       <c r="C484" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D484">
         <v>130291</v>
@@ -27876,13 +27881,13 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B485">
         <v>30060</v>
       </c>
       <c r="C485" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D485">
         <v>35571</v>
@@ -27920,13 +27925,13 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B486">
         <v>30140</v>
       </c>
       <c r="C486" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D486">
         <v>133568</v>
@@ -27964,13 +27969,13 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B487">
         <v>30220</v>
       </c>
       <c r="C487" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D487">
         <v>22935</v>
@@ -28008,13 +28013,13 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B488">
         <v>30260</v>
       </c>
       <c r="C488" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D488">
         <v>44947</v>
@@ -28052,13 +28057,13 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B489">
         <v>30280</v>
       </c>
       <c r="C489" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D489">
         <v>30617</v>
@@ -28096,13 +28101,13 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B490">
         <v>30300</v>
       </c>
       <c r="C490" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D490">
         <v>60888</v>
@@ -28140,13 +28145,13 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B491">
         <v>30340</v>
       </c>
       <c r="C491" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D491">
         <v>107702</v>
@@ -28184,13 +28189,13 @@
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B492">
         <v>30380</v>
       </c>
       <c r="C492" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D492">
         <v>46682</v>
@@ -28228,13 +28233,13 @@
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B493">
         <v>30420</v>
       </c>
       <c r="C493" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D493">
         <v>26370</v>
@@ -28272,13 +28277,13 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B494">
         <v>30460</v>
       </c>
       <c r="C494" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D494">
         <v>472099</v>
@@ -28316,13 +28321,13 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B495">
         <v>30580</v>
       </c>
       <c r="C495" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D495">
         <v>22952</v>
@@ -28360,13 +28365,13 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B496">
         <v>30620</v>
       </c>
       <c r="C496" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D496">
         <v>106331</v>
@@ -28404,13 +28409,13 @@
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B497">
         <v>30660</v>
       </c>
       <c r="C497" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D497">
         <v>30305</v>
@@ -28448,13 +28453,13 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B498">
         <v>30700</v>
       </c>
       <c r="C498" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D498">
         <v>302157</v>
@@ -28492,13 +28497,13 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B499">
         <v>30780</v>
       </c>
       <c r="C499" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D499">
         <v>699757</v>
@@ -28536,13 +28541,13 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B500">
         <v>30820</v>
       </c>
       <c r="C500" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D500">
         <v>39238</v>
@@ -28580,13 +28585,13 @@
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B501">
         <v>30860</v>
       </c>
       <c r="C501" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D501">
         <v>125442</v>
@@ -28624,13 +28629,13 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B502">
         <v>30880</v>
       </c>
       <c r="C502" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D502">
         <v>36743</v>
@@ -28668,13 +28673,13 @@
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B503">
         <v>30900</v>
       </c>
       <c r="C503" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D503">
         <v>38966</v>
@@ -28712,13 +28717,13 @@
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B504">
         <v>30940</v>
       </c>
       <c r="C504" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D504">
         <v>126369</v>
@@ -28756,13 +28761,13 @@
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B505">
         <v>30980</v>
       </c>
       <c r="C505" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D505">
         <v>214369</v>
@@ -28800,13 +28805,13 @@
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B506">
         <v>31020</v>
       </c>
       <c r="C506" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D506">
         <v>102410</v>
@@ -28844,13 +28849,13 @@
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B507">
         <v>31060</v>
       </c>
       <c r="C507" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D507">
         <v>17950</v>
@@ -28888,13 +28893,13 @@
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B508">
         <v>31080</v>
       </c>
       <c r="C508" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D508">
         <v>12828837</v>
@@ -28932,13 +28937,13 @@
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B509">
         <v>31140</v>
       </c>
       <c r="C509" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D509">
         <v>1235708</v>
@@ -28976,13 +28981,13 @@
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B510">
         <v>31180</v>
       </c>
       <c r="C510" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D510">
         <v>290805</v>
@@ -29020,13 +29025,13 @@
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B511">
         <v>31220</v>
       </c>
       <c r="C511" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D511">
         <v>28705</v>
@@ -29064,13 +29069,13 @@
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B512">
         <v>31260</v>
       </c>
       <c r="C512" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D512">
         <v>86771</v>
@@ -29108,13 +29113,13 @@
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B513">
         <v>31300</v>
       </c>
       <c r="C513" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D513">
         <v>134168</v>
@@ -29152,13 +29157,13 @@
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B514">
         <v>31340</v>
       </c>
       <c r="C514" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D514">
         <v>252634</v>
@@ -29196,13 +29201,13 @@
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B515">
         <v>31380</v>
       </c>
       <c r="C515" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D515">
         <v>32612</v>
@@ -29240,13 +29245,13 @@
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B516">
         <v>31420</v>
       </c>
       <c r="C516" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D516">
         <v>232293</v>
@@ -29284,13 +29289,13 @@
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B517">
         <v>31460</v>
       </c>
       <c r="C517" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D517">
         <v>150865</v>
@@ -29328,13 +29333,13 @@
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B518">
         <v>31500</v>
       </c>
       <c r="C518" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D518">
         <v>32428</v>
@@ -29372,13 +29377,13 @@
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B519">
         <v>31540</v>
       </c>
       <c r="C519" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D519">
         <v>605435</v>
@@ -29416,13 +29421,13 @@
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B520">
         <v>31580</v>
       </c>
       <c r="C520" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D520">
         <v>46920</v>
@@ -29460,13 +29465,13 @@
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B521">
         <v>31620</v>
       </c>
       <c r="C521" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D521">
         <v>24552</v>
@@ -29504,13 +29509,13 @@
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B522">
         <v>31660</v>
       </c>
       <c r="C522" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D522">
         <v>51599</v>
@@ -29548,13 +29553,13 @@
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B523">
         <v>31680</v>
       </c>
       <c r="C523" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D523">
         <v>32923</v>
@@ -29592,13 +29597,13 @@
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B524">
         <v>31700</v>
       </c>
       <c r="C524" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D524">
         <v>400721</v>
@@ -29636,13 +29641,13 @@
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B525">
         <v>31740</v>
       </c>
       <c r="C525" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D525">
         <v>92719</v>
@@ -29680,13 +29685,13 @@
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B526">
         <v>31820</v>
       </c>
       <c r="C526" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D526">
         <v>81442</v>
@@ -29724,13 +29729,13 @@
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B527">
         <v>31860</v>
       </c>
       <c r="C527" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D527">
         <v>96740</v>
@@ -29768,13 +29773,13 @@
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B528">
         <v>31900</v>
       </c>
       <c r="C528" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D528">
         <v>124475</v>
@@ -29812,13 +29817,13 @@
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B529">
         <v>31930</v>
       </c>
       <c r="C529" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D529">
         <v>61778</v>
@@ -29856,13 +29861,13 @@
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B530">
         <v>31940</v>
       </c>
       <c r="C530" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D530">
         <v>65778</v>
@@ -29900,13 +29905,13 @@
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B531">
         <v>31980</v>
       </c>
       <c r="C531" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D531">
         <v>70061</v>
@@ -29944,13 +29949,13 @@
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B532">
         <v>32000</v>
       </c>
       <c r="C532" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D532">
         <v>44996</v>
@@ -29988,13 +29993,13 @@
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B533">
         <v>32020</v>
       </c>
       <c r="C533" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D533">
         <v>66501</v>
@@ -30032,13 +30037,13 @@
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B534">
         <v>32100</v>
       </c>
       <c r="C534" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D534">
         <v>67077</v>
@@ -30076,13 +30081,13 @@
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B535">
         <v>32140</v>
       </c>
       <c r="C535" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D535">
         <v>25857</v>
@@ -30120,13 +30125,13 @@
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B536">
         <v>32180</v>
       </c>
       <c r="C536" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D536">
         <v>23370</v>
@@ -30164,13 +30169,13 @@
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B537">
         <v>32220</v>
       </c>
       <c r="C537" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D537">
         <v>65631</v>
@@ -30208,13 +30213,13 @@
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B538">
         <v>32260</v>
       </c>
       <c r="C538" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D538">
         <v>40648</v>
@@ -30252,13 +30257,13 @@
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B539">
         <v>32280</v>
       </c>
       <c r="C539" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D539">
         <v>35021</v>
@@ -30296,13 +30301,13 @@
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B540">
         <v>32300</v>
       </c>
       <c r="C540" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D540">
         <v>67972</v>
@@ -30340,13 +30345,13 @@
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B541">
         <v>32340</v>
       </c>
       <c r="C541" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D541">
         <v>23370</v>
@@ -30384,13 +30389,13 @@
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B542">
         <v>32380</v>
       </c>
       <c r="C542" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D542">
         <v>51749</v>
@@ -30428,13 +30433,13 @@
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B543">
         <v>32420</v>
       </c>
       <c r="C543" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D543">
         <v>106330</v>
@@ -30472,13 +30477,13 @@
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B544">
         <v>32460</v>
       </c>
       <c r="C544" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D544">
         <v>37121</v>
@@ -30516,13 +30521,13 @@
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B545">
         <v>32500</v>
       </c>
       <c r="C545" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D545">
         <v>17490</v>
@@ -30560,13 +30565,13 @@
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B546">
         <v>32540</v>
       </c>
       <c r="C546" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D546">
         <v>45837</v>
@@ -30604,13 +30609,13 @@
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B547">
         <v>32580</v>
       </c>
       <c r="C547" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D547">
         <v>774769</v>
@@ -30648,13 +30653,13 @@
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B548">
         <v>32620</v>
       </c>
       <c r="C548" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D548">
         <v>53535</v>
@@ -30692,13 +30697,13 @@
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B549">
         <v>32660</v>
       </c>
       <c r="C549" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D549">
         <v>39839</v>
@@ -30736,13 +30741,13 @@
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B550">
         <v>32700</v>
       </c>
       <c r="C550" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D550">
         <v>29180</v>
@@ -30780,13 +30785,13 @@
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B551">
         <v>32740</v>
       </c>
       <c r="C551" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D551">
         <v>88765</v>
@@ -30824,13 +30829,13 @@
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B552">
         <v>32780</v>
       </c>
       <c r="C552" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D552">
         <v>203206</v>
@@ -30868,13 +30873,13 @@
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B553">
         <v>32820</v>
       </c>
       <c r="C553" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D553">
         <v>1324829</v>
@@ -30912,13 +30917,13 @@
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B554">
         <v>32860</v>
       </c>
       <c r="C554" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D554">
         <v>43857</v>
@@ -30956,13 +30961,13 @@
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B555">
         <v>32900</v>
       </c>
       <c r="C555" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D555">
         <v>255793</v>
@@ -31000,13 +31005,13 @@
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B556">
         <v>32940</v>
       </c>
       <c r="C556" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D556">
         <v>107449</v>
@@ -31044,13 +31049,13 @@
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B557">
         <v>32980</v>
       </c>
       <c r="C557" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D557">
         <v>28743</v>
@@ -31088,13 +31093,13 @@
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B558">
         <v>33020</v>
       </c>
       <c r="C558" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D558">
         <v>25529</v>
@@ -31132,13 +31137,13 @@
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B559">
         <v>33060</v>
       </c>
       <c r="C559" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D559">
         <v>31848</v>
@@ -31176,13 +31181,13 @@
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B560">
         <v>33100</v>
       </c>
       <c r="C560" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D560">
         <v>5564635</v>
@@ -31220,13 +31225,13 @@
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B561">
         <v>33140</v>
       </c>
       <c r="C561" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D561">
         <v>111467</v>
@@ -31264,13 +31269,13 @@
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B562">
         <v>33180</v>
       </c>
       <c r="C562" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D562">
         <v>28691</v>
@@ -31308,13 +31313,13 @@
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B563">
         <v>33220</v>
       </c>
       <c r="C563" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D563">
         <v>83629</v>
@@ -31352,13 +31357,13 @@
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B564">
         <v>33260</v>
       </c>
       <c r="C564" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D564">
         <v>141671</v>
@@ -31396,13 +31401,13 @@
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B565">
         <v>33300</v>
       </c>
       <c r="C565" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D565">
         <v>55149</v>
@@ -31440,13 +31445,13 @@
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B566">
         <v>33340</v>
       </c>
       <c r="C566" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D566">
         <v>1555908</v>
@@ -31484,13 +31489,13 @@
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B567">
         <v>33420</v>
       </c>
       <c r="C567" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D567">
         <v>28111</v>
@@ -31528,13 +31533,13 @@
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B568">
         <v>33460</v>
       </c>
       <c r="C568" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D568">
         <v>3348859</v>
@@ -31572,13 +31577,13 @@
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B569">
         <v>33500</v>
       </c>
       <c r="C569" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D569">
         <v>69540</v>
@@ -31616,13 +31621,13 @@
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B570">
         <v>33540</v>
       </c>
       <c r="C570" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D570">
         <v>109299</v>
@@ -31660,13 +31665,13 @@
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B571">
         <v>33580</v>
       </c>
       <c r="C571" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D571">
         <v>22835</v>
@@ -31704,13 +31709,13 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B572">
         <v>33620</v>
       </c>
       <c r="C572" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D572">
         <v>25414</v>
@@ -31748,13 +31753,13 @@
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B573">
         <v>33660</v>
       </c>
       <c r="C573" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D573">
         <v>412992</v>
@@ -31792,13 +31797,13 @@
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B574">
         <v>33700</v>
       </c>
       <c r="C574" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D574">
         <v>514453</v>
@@ -31836,13 +31841,13 @@
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B575">
         <v>33740</v>
       </c>
       <c r="C575" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D575">
         <v>176441</v>
@@ -31880,13 +31885,13 @@
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B576">
         <v>33780</v>
       </c>
       <c r="C576" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D576">
         <v>152021</v>
@@ -31924,13 +31929,13 @@
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B577">
         <v>33860</v>
       </c>
       <c r="C577" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D577">
         <v>374536</v>
@@ -31968,13 +31973,13 @@
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B578">
         <v>33940</v>
       </c>
       <c r="C578" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D578">
         <v>41276</v>
@@ -32012,13 +32017,13 @@
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B579">
         <v>33980</v>
       </c>
       <c r="C579" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D579">
         <v>66469</v>
@@ -32056,13 +32061,13 @@
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B580">
         <v>34020</v>
       </c>
       <c r="C580" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D580">
         <v>54650</v>
@@ -32100,13 +32105,13 @@
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B581">
         <v>34060</v>
       </c>
       <c r="C581" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D581">
         <v>129709</v>
@@ -32144,13 +32149,13 @@
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B582">
         <v>34100</v>
       </c>
       <c r="C582" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D582">
         <v>113951</v>
@@ -32188,13 +32193,13 @@
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B583">
         <v>34140</v>
       </c>
       <c r="C583" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D583">
         <v>37244</v>
@@ -32232,13 +32237,13 @@
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B584">
         <v>34180</v>
       </c>
       <c r="C584" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D584">
         <v>89120</v>
@@ -32276,13 +32281,13 @@
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B585">
         <v>34220</v>
       </c>
       <c r="C585" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D585">
         <v>45498</v>
@@ -32320,13 +32325,13 @@
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B586">
         <v>34260</v>
       </c>
       <c r="C586" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D586">
         <v>41513</v>
@@ -32364,13 +32369,13 @@
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B587">
         <v>34300</v>
       </c>
       <c r="C587" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D587">
         <v>27038</v>
@@ -32408,13 +32413,13 @@
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B588">
         <v>34340</v>
       </c>
       <c r="C588" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D588">
         <v>73673</v>
@@ -32452,13 +32457,13 @@
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B589">
         <v>34380</v>
       </c>
       <c r="C589" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D589">
         <v>70311</v>
@@ -32496,13 +32501,13 @@
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B590">
         <v>34420</v>
       </c>
       <c r="C590" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D590">
         <v>32334</v>
@@ -32540,13 +32545,13 @@
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B591">
         <v>34460</v>
       </c>
       <c r="C591" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D591">
         <v>44396</v>
@@ -32584,13 +32589,13 @@
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B592">
         <v>34500</v>
       </c>
       <c r="C592" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D592">
         <v>38827</v>
@@ -32628,13 +32633,13 @@
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B593">
         <v>34540</v>
       </c>
       <c r="C593" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D593">
         <v>60921</v>
@@ -32672,13 +32677,13 @@
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B594">
         <v>34580</v>
       </c>
       <c r="C594" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D594">
         <v>116901</v>
@@ -32716,13 +32721,13 @@
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B595">
         <v>34620</v>
       </c>
       <c r="C595" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D595">
         <v>117671</v>
@@ -32760,13 +32765,13 @@
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B596">
         <v>34660</v>
       </c>
       <c r="C596" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D596">
         <v>37191</v>
@@ -32804,13 +32809,13 @@
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B597">
         <v>34700</v>
       </c>
       <c r="C597" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D597">
         <v>42745</v>
@@ -32848,13 +32853,13 @@
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B598">
         <v>34740</v>
       </c>
       <c r="C598" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D598">
         <v>172188</v>
@@ -32892,13 +32897,13 @@
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B599">
         <v>34780</v>
       </c>
       <c r="C599" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D599">
         <v>70990</v>
@@ -32936,13 +32941,13 @@
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B600">
         <v>34820</v>
       </c>
       <c r="C600" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D600">
         <v>376722</v>
@@ -32980,13 +32985,13 @@
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B601">
         <v>34860</v>
       </c>
       <c r="C601" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D601">
         <v>64524</v>
@@ -33024,13 +33029,13 @@
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B602">
         <v>34900</v>
       </c>
       <c r="C602" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D602">
         <v>136484</v>
@@ -33068,13 +33073,13 @@
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B603">
         <v>34940</v>
       </c>
       <c r="C603" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D603">
         <v>321520</v>
@@ -33112,13 +33117,13 @@
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B604">
         <v>34980</v>
       </c>
       <c r="C604" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D604">
         <v>1670890</v>
@@ -33156,13 +33161,13 @@
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B605">
         <v>35020</v>
       </c>
       <c r="C605" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D605">
         <v>53119</v>
@@ -33200,13 +33205,13 @@
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B606">
         <v>35060</v>
       </c>
       <c r="C606" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D606">
         <v>39566</v>
@@ -33244,13 +33249,13 @@
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B607">
         <v>35100</v>
       </c>
       <c r="C607" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D607">
         <v>126802</v>
@@ -33288,13 +33293,13 @@
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B608">
         <v>35140</v>
       </c>
       <c r="C608" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D608">
         <v>37508</v>
@@ -33332,13 +33337,13 @@
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B609">
         <v>35220</v>
       </c>
       <c r="C609" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D609">
         <v>49462</v>
@@ -33376,13 +33381,13 @@
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B610">
         <v>35260</v>
       </c>
       <c r="C610" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D610">
         <v>91108</v>
@@ -33420,13 +33425,13 @@
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B611">
         <v>35300</v>
       </c>
       <c r="C611" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D611">
         <v>862477</v>
@@ -33464,13 +33469,13 @@
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B612">
         <v>35380</v>
       </c>
       <c r="C612" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D612">
         <v>1189866</v>
@@ -33508,13 +33513,13 @@
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B613">
         <v>35420</v>
       </c>
       <c r="C613" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D613">
         <v>92582</v>
@@ -33552,13 +33557,13 @@
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B614">
         <v>35440</v>
       </c>
       <c r="C614" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D614">
         <v>46034</v>
@@ -33596,13 +33601,13 @@
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B615">
         <v>35460</v>
       </c>
       <c r="C615" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D615">
         <v>35662</v>
@@ -33640,13 +33645,13 @@
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B616">
         <v>35500</v>
       </c>
       <c r="C616" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D616">
         <v>36842</v>
@@ -33684,13 +33689,13 @@
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B617">
         <v>35580</v>
       </c>
       <c r="C617" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D617">
         <v>25893</v>
@@ -33728,13 +33733,13 @@
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B618">
         <v>35620</v>
       </c>
       <c r="C618" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D618">
         <v>19567410</v>
@@ -33772,13 +33777,13 @@
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B619">
         <v>35660</v>
       </c>
       <c r="C619" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D619">
         <v>156813</v>
@@ -33816,13 +33821,13 @@
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B620">
         <v>35700</v>
       </c>
       <c r="C620" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D620">
         <v>47420</v>
@@ -33860,13 +33865,13 @@
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B621">
         <v>35740</v>
       </c>
       <c r="C621" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D621">
         <v>48271</v>
@@ -33904,13 +33909,13 @@
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B622">
         <v>35820</v>
       </c>
       <c r="C622" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D622">
         <v>37590</v>
@@ -33948,13 +33953,13 @@
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B623">
         <v>35840</v>
       </c>
       <c r="C623" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D623">
         <v>702281</v>
@@ -33992,13 +33997,13 @@
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B624">
         <v>35860</v>
       </c>
       <c r="C624" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D624">
         <v>28525</v>
@@ -34036,13 +34041,13 @@
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B625">
         <v>35900</v>
       </c>
       <c r="C625" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D625">
         <v>69340</v>
@@ -34080,13 +34085,13 @@
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B626">
         <v>35940</v>
       </c>
       <c r="C626" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D626">
         <v>59626</v>
@@ -34124,13 +34129,13 @@
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B627">
         <v>35980</v>
       </c>
       <c r="C627" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D627">
         <v>274055</v>
@@ -34168,13 +34173,13 @@
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B628">
         <v>36020</v>
       </c>
       <c r="C628" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D628">
         <v>78506</v>
@@ -34212,13 +34217,13 @@
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B629">
         <v>36100</v>
       </c>
       <c r="C629" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D629">
         <v>331298</v>
@@ -34256,13 +34261,13 @@
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B630">
         <v>36140</v>
       </c>
       <c r="C630" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D630">
         <v>97265</v>
@@ -34300,13 +34305,13 @@
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B631">
         <v>36220</v>
       </c>
       <c r="C631" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D631">
         <v>137130</v>
@@ -34344,13 +34349,13 @@
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B632">
         <v>36260</v>
       </c>
       <c r="C632" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D632">
         <v>597159</v>
@@ -34388,13 +34393,13 @@
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B633">
         <v>36300</v>
       </c>
       <c r="C633" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D633">
         <v>111944</v>
@@ -34432,13 +34437,13 @@
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B634">
         <v>36340</v>
       </c>
       <c r="C634" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D634">
         <v>54984</v>
@@ -34476,13 +34481,13 @@
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B635">
         <v>36380</v>
       </c>
       <c r="C635" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D635">
         <v>39996</v>
@@ -34520,13 +34525,13 @@
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B636">
         <v>36420</v>
       </c>
       <c r="C636" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D636">
         <v>1252987</v>
@@ -34564,13 +34569,13 @@
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B637">
         <v>36460</v>
       </c>
       <c r="C637" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D637">
         <v>80317</v>
@@ -34608,13 +34613,13 @@
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B638">
         <v>36500</v>
       </c>
       <c r="C638" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D638">
         <v>252264</v>
@@ -34652,13 +34657,13 @@
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B639">
         <v>36540</v>
       </c>
       <c r="C639" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D639">
         <v>865350</v>
@@ -34696,13 +34701,13 @@
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B640">
         <v>36580</v>
       </c>
       <c r="C640" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D640">
         <v>62259</v>
@@ -34740,13 +34745,13 @@
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B641">
         <v>36620</v>
       </c>
       <c r="C641" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D641">
         <v>53936</v>
@@ -34784,13 +34789,13 @@
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B642">
         <v>36660</v>
       </c>
       <c r="C642" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D642">
         <v>83384</v>
@@ -34828,13 +34833,13 @@
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B643">
         <v>36700</v>
       </c>
       <c r="C643" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D643">
         <v>92501</v>
@@ -34872,13 +34877,13 @@
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B644">
         <v>36740</v>
       </c>
       <c r="C644" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D644">
         <v>2134411</v>
@@ -34916,13 +34921,13 @@
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B645">
         <v>36780</v>
       </c>
       <c r="C645" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D645">
         <v>166994</v>
@@ -34960,13 +34965,13 @@
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B646">
         <v>36820</v>
       </c>
       <c r="C646" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D646">
         <v>22381</v>
@@ -35004,13 +35009,13 @@
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B647">
         <v>36830</v>
       </c>
       <c r="C647" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D647">
         <v>18728</v>
@@ -35048,13 +35053,13 @@
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B648">
         <v>36840</v>
       </c>
       <c r="C648" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D648">
         <v>25992</v>
@@ -35092,13 +35097,13 @@
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B649">
         <v>36860</v>
       </c>
       <c r="C649" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D649">
         <v>154908</v>
@@ -35136,13 +35141,13 @@
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B650">
         <v>36900</v>
       </c>
       <c r="C650" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D650">
         <v>44378</v>
@@ -35180,13 +35185,13 @@
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B651">
         <v>36940</v>
       </c>
       <c r="C651" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D651">
         <v>36576</v>
@@ -35224,13 +35229,13 @@
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B652">
         <v>36980</v>
       </c>
       <c r="C652" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D652">
         <v>114752</v>
@@ -35268,13 +35273,13 @@
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B653">
         <v>37020</v>
       </c>
       <c r="C653" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D653">
         <v>70648</v>
@@ -35312,13 +35317,13 @@
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B654">
         <v>37060</v>
       </c>
       <c r="C654" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D654">
         <v>47351</v>
@@ -35356,13 +35361,13 @@
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B655">
         <v>37080</v>
       </c>
       <c r="C655" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D655">
         <v>59916</v>
@@ -35400,13 +35405,13 @@
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B656">
         <v>37100</v>
       </c>
       <c r="C656" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D656">
         <v>823318</v>
@@ -35444,13 +35449,13 @@
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B657">
         <v>37120</v>
       </c>
       <c r="C657" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D657">
         <v>50251</v>
@@ -35488,13 +35493,13 @@
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B658">
         <v>37140</v>
       </c>
       <c r="C658" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D658">
         <v>98762</v>
@@ -35532,13 +35537,13 @@
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B659">
         <v>37220</v>
       </c>
       <c r="C659" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D659">
         <v>43946</v>
@@ -35576,13 +35581,13 @@
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B660">
         <v>37260</v>
       </c>
       <c r="C660" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D660">
         <v>74364</v>
@@ -35620,13 +35625,13 @@
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B661">
         <v>37300</v>
       </c>
       <c r="C661" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D661">
         <v>58458</v>
@@ -35664,13 +35669,13 @@
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B662">
         <v>37340</v>
       </c>
       <c r="C662" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D662">
         <v>543376</v>
@@ -35708,13 +35713,13 @@
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B663">
         <v>37420</v>
       </c>
       <c r="C663" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D663">
         <v>22535</v>
@@ -35752,13 +35757,13 @@
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B664">
         <v>37460</v>
       </c>
       <c r="C664" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D664">
         <v>184715</v>
@@ -35796,13 +35801,13 @@
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B665">
         <v>37500</v>
       </c>
       <c r="C665" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D665">
         <v>42090</v>
@@ -35840,13 +35845,13 @@
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B666">
         <v>37540</v>
       </c>
       <c r="C666" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D666">
         <v>32330</v>
@@ -35884,13 +35889,13 @@
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B667">
         <v>37580</v>
       </c>
       <c r="C667" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D667">
         <v>49793</v>
@@ -35928,13 +35933,13 @@
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B668">
         <v>37620</v>
       </c>
       <c r="C668" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D668">
         <v>92673</v>
@@ -35972,13 +35977,13 @@
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B669">
         <v>37660</v>
       </c>
       <c r="C669" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D669">
         <v>21607</v>
@@ -36016,13 +36021,13 @@
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B670">
         <v>37740</v>
       </c>
       <c r="C670" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D670">
         <v>53597</v>
@@ -36060,13 +36065,13 @@
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B671">
         <v>37780</v>
       </c>
       <c r="C671" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D671">
         <v>13783</v>
@@ -36104,13 +36109,13 @@
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B672">
         <v>37800</v>
       </c>
       <c r="C672" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D672">
         <v>33309</v>
@@ -36148,13 +36153,13 @@
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B673">
         <v>37860</v>
       </c>
       <c r="C673" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D673">
         <v>448991</v>
@@ -36192,13 +36197,13 @@
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B674">
         <v>37900</v>
       </c>
       <c r="C674" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D674">
         <v>379186</v>
@@ -36236,13 +36241,13 @@
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B675">
         <v>37940</v>
       </c>
       <c r="C675" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D675">
         <v>36903</v>
@@ -36280,13 +36285,13 @@
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B676">
         <v>37980</v>
       </c>
       <c r="C676" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D676">
         <v>5965343</v>
@@ -36324,13 +36329,13 @@
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B677">
         <v>38060</v>
       </c>
       <c r="C677" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D677">
         <v>4192887</v>
@@ -36368,13 +36373,13 @@
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B678">
         <v>38100</v>
       </c>
       <c r="C678" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D678">
         <v>55834</v>
@@ -36412,13 +36417,13 @@
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B679">
         <v>38180</v>
       </c>
       <c r="C679" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D679">
         <v>21361</v>
@@ -36456,13 +36461,13 @@
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B680">
         <v>38220</v>
       </c>
       <c r="C680" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D680">
         <v>100258</v>
@@ -36500,13 +36505,13 @@
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B681">
         <v>38240</v>
       </c>
       <c r="C681" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D681">
         <v>88247</v>
@@ -36544,13 +36549,13 @@
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B682">
         <v>38260</v>
       </c>
       <c r="C682" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D682">
         <v>39134</v>
@@ -36588,13 +36593,13 @@
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B683">
         <v>38300</v>
       </c>
       <c r="C683" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D683">
         <v>2356285</v>
@@ -36632,13 +36637,13 @@
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B684">
         <v>38340</v>
       </c>
       <c r="C684" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D684">
         <v>131219</v>
@@ -36676,13 +36681,13 @@
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B685">
         <v>38380</v>
       </c>
       <c r="C685" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D685">
         <v>36273</v>
@@ -36720,13 +36725,13 @@
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B686">
         <v>38420</v>
       </c>
       <c r="C686" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D686">
         <v>51208</v>
@@ -36764,13 +36769,13 @@
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B687">
         <v>38460</v>
       </c>
       <c r="C687" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D687">
         <v>82128</v>
@@ -36808,13 +36813,13 @@
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B688">
         <v>38500</v>
       </c>
       <c r="C688" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D688">
         <v>47051</v>
@@ -36852,13 +36857,13 @@
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B689">
         <v>38540</v>
       </c>
       <c r="C689" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D689">
         <v>82839</v>
@@ -36896,13 +36901,13 @@
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B690">
         <v>38580</v>
       </c>
       <c r="C690" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D690">
         <v>58258</v>
@@ -36940,13 +36945,13 @@
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B691">
         <v>38620</v>
       </c>
       <c r="C691" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D691">
         <v>46562</v>
@@ -36984,13 +36989,13 @@
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B692">
         <v>38660</v>
       </c>
       <c r="C692" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D692">
         <v>350480</v>
@@ -37028,13 +37033,13 @@
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B693">
         <v>38700</v>
       </c>
       <c r="C693" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D693">
         <v>38950</v>
@@ -37072,13 +37077,13 @@
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B694">
         <v>38740</v>
       </c>
       <c r="C694" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D694">
         <v>42794</v>
@@ -37116,13 +37121,13 @@
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B695">
         <v>38780</v>
       </c>
       <c r="C695" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D695">
         <v>19846</v>
@@ -37160,13 +37165,13 @@
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B696">
         <v>38820</v>
       </c>
       <c r="C696" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D696">
         <v>71404</v>
@@ -37204,13 +37209,13 @@
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B697">
         <v>38840</v>
       </c>
       <c r="C697" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D697">
         <v>41428</v>
@@ -37248,13 +37253,13 @@
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B698">
         <v>38860</v>
       </c>
       <c r="C698" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D698">
         <v>514098</v>
@@ -37292,13 +37297,13 @@
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B699">
         <v>38900</v>
       </c>
       <c r="C699" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D699">
         <v>2226009</v>
@@ -37336,13 +37341,13 @@
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B700">
         <v>38920</v>
       </c>
       <c r="C700" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D700">
         <v>21381</v>
@@ -37380,13 +37385,13 @@
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B701">
         <v>38940</v>
       </c>
       <c r="C701" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D701">
         <v>424107</v>
@@ -37424,13 +37429,13 @@
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B702">
         <v>39020</v>
       </c>
       <c r="C702" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D702">
         <v>79499</v>
@@ -37468,13 +37473,13 @@
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B703">
         <v>39060</v>
       </c>
       <c r="C703" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D703">
         <v>148289</v>
@@ -37512,13 +37517,13 @@
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B704">
         <v>39140</v>
       </c>
       <c r="C704" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D704">
         <v>211033</v>
@@ -37556,13 +37561,13 @@
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B705">
         <v>39220</v>
       </c>
       <c r="C705" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D705">
         <v>21403</v>
@@ -37600,13 +37605,13 @@
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B706">
         <v>39260</v>
       </c>
       <c r="C706" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D706">
         <v>20978</v>
@@ -37644,13 +37649,13 @@
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B707">
         <v>39300</v>
       </c>
       <c r="C707" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D707">
         <v>1600852</v>
@@ -37688,13 +37693,13 @@
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B708">
         <v>39340</v>
       </c>
       <c r="C708" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D708">
         <v>526810</v>
@@ -37732,13 +37737,13 @@
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B709">
         <v>39380</v>
       </c>
       <c r="C709" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D709">
         <v>159063</v>
@@ -37776,13 +37781,13 @@
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B710">
         <v>39420</v>
       </c>
       <c r="C710" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D710">
         <v>44776</v>
@@ -37820,13 +37825,13 @@
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B711">
         <v>39460</v>
       </c>
       <c r="C711" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D711">
         <v>159978</v>
@@ -37864,13 +37869,13 @@
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B712">
         <v>39500</v>
       </c>
       <c r="C712" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D712">
         <v>77314</v>
@@ -37908,13 +37913,13 @@
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B713">
         <v>39540</v>
       </c>
       <c r="C713" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D713">
         <v>195408</v>
@@ -37952,13 +37957,13 @@
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B714">
         <v>39580</v>
       </c>
       <c r="C714" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D714">
         <v>1130490</v>
@@ -37996,13 +38001,13 @@
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B715">
         <v>39660</v>
       </c>
       <c r="C715" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D715">
         <v>134598</v>
@@ -38040,13 +38045,13 @@
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B716">
         <v>39700</v>
       </c>
       <c r="C716" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D716">
         <v>22134</v>
@@ -38084,13 +38089,13 @@
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B717">
         <v>39740</v>
       </c>
       <c r="C717" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D717">
         <v>411442</v>
@@ -38128,13 +38133,13 @@
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B718">
         <v>39780</v>
       </c>
       <c r="C718" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D718">
         <v>63463</v>
@@ -38172,13 +38177,13 @@
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B719">
         <v>39820</v>
       </c>
       <c r="C719" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D719">
         <v>177223</v>
@@ -38216,13 +38221,13 @@
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B720">
         <v>39860</v>
       </c>
       <c r="C720" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D720">
         <v>46183</v>
@@ -38260,13 +38265,13 @@
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B721">
         <v>39900</v>
       </c>
       <c r="C721" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D721">
         <v>425417</v>
@@ -38304,13 +38309,13 @@
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B722">
         <v>39940</v>
       </c>
       <c r="C722" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="D722">
         <v>50778</v>
@@ -38348,13 +38353,13 @@
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B723">
         <v>39980</v>
       </c>
       <c r="C723" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D723">
         <v>68917</v>
@@ -38392,13 +38397,13 @@
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B724">
         <v>40060</v>
       </c>
       <c r="C724" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D724">
         <v>1208101</v>
@@ -38436,13 +38441,13 @@
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B725">
         <v>40080</v>
       </c>
       <c r="C725" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D725">
         <v>99972</v>
@@ -38480,13 +38485,13 @@
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B726">
         <v>40100</v>
       </c>
       <c r="C726" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D726">
         <v>60968</v>
@@ -38524,13 +38529,13 @@
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B727">
         <v>40140</v>
       </c>
       <c r="C727" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D727">
         <v>4224851</v>
@@ -38568,13 +38573,13 @@
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B728">
         <v>40180</v>
       </c>
       <c r="C728" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D728">
         <v>40123</v>
@@ -38612,13 +38617,13 @@
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B729">
         <v>40220</v>
       </c>
       <c r="C729" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D729">
         <v>308707</v>
@@ -38656,13 +38661,13 @@
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B730">
         <v>40260</v>
       </c>
       <c r="C730" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D730">
         <v>76790</v>
@@ -38700,13 +38705,13 @@
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B731">
         <v>40300</v>
       </c>
       <c r="C731" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D731">
         <v>53497</v>
@@ -38744,13 +38749,13 @@
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B732">
         <v>40340</v>
       </c>
       <c r="C732" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D732">
         <v>206877</v>
@@ -38788,13 +38793,13 @@
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B733">
         <v>40380</v>
       </c>
       <c r="C733" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D733">
         <v>1079671</v>
@@ -38832,13 +38837,13 @@
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B734">
         <v>40420</v>
       </c>
       <c r="C734" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D734">
         <v>349431</v>
@@ -38876,13 +38881,13 @@
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B735">
         <v>40460</v>
       </c>
       <c r="C735" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D735">
         <v>46639</v>
@@ -38920,13 +38925,13 @@
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B736">
         <v>40540</v>
       </c>
       <c r="C736" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D736">
         <v>43806</v>
@@ -38964,13 +38969,13 @@
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B737">
         <v>40580</v>
       </c>
       <c r="C737" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D737">
         <v>152392</v>
@@ -39008,13 +39013,13 @@
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B738">
         <v>40620</v>
       </c>
       <c r="C738" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D738">
         <v>45156</v>
@@ -39052,13 +39057,13 @@
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B739">
         <v>40660</v>
       </c>
       <c r="C739" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D739">
         <v>96317</v>
@@ -39096,13 +39101,13 @@
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B740">
         <v>40700</v>
       </c>
       <c r="C740" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D740">
         <v>107667</v>
@@ -39140,13 +39145,13 @@
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B741">
         <v>40740</v>
       </c>
       <c r="C741" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D741">
         <v>65645</v>
@@ -39184,13 +39189,13 @@
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B742">
         <v>40760</v>
       </c>
       <c r="C742" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D742">
         <v>20497</v>
@@ -39228,13 +39233,13 @@
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B743">
         <v>40780</v>
       </c>
       <c r="C743" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D743">
         <v>83939</v>
@@ -39272,13 +39277,13 @@
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B744">
         <v>40820</v>
       </c>
       <c r="C744" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D744">
         <v>46735</v>
@@ -39316,13 +39321,13 @@
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B745">
         <v>40860</v>
       </c>
       <c r="C745" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D745">
         <v>61642</v>
@@ -39360,13 +39365,13 @@
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B746">
         <v>40900</v>
       </c>
       <c r="C746" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D746">
         <v>2149127</v>
@@ -39404,13 +39409,13 @@
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B747">
         <v>40940</v>
       </c>
       <c r="C747" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D747">
         <v>37220</v>
@@ -39448,13 +39453,13 @@
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B748">
         <v>40980</v>
       </c>
       <c r="C748" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D748">
         <v>200169</v>
@@ -39492,13 +39497,13 @@
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B749">
         <v>41060</v>
       </c>
       <c r="C749" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D749">
         <v>189093</v>
@@ -39536,13 +39541,13 @@
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B750">
         <v>41100</v>
       </c>
       <c r="C750" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D750">
         <v>138115</v>
@@ -39580,13 +39585,13 @@
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B751">
         <v>41140</v>
       </c>
       <c r="C751" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D751">
         <v>127329</v>
@@ -39624,13 +39629,13 @@
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B752">
         <v>41180</v>
       </c>
       <c r="C752" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D752">
         <v>2787701</v>
@@ -39668,13 +39673,13 @@
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B753">
         <v>41220</v>
       </c>
       <c r="C753" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D753">
         <v>50513</v>
@@ -39712,13 +39717,13 @@
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B754">
         <v>41260</v>
       </c>
       <c r="C754" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D754">
         <v>31946</v>
@@ -39756,13 +39761,13 @@
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B755">
         <v>41400</v>
       </c>
       <c r="C755" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D755">
         <v>107841</v>
@@ -39800,13 +39805,13 @@
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B756">
         <v>41420</v>
       </c>
       <c r="C756" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D756">
         <v>390738</v>
@@ -39844,13 +39849,13 @@
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B757">
         <v>41460</v>
       </c>
       <c r="C757" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D757">
         <v>61697</v>
@@ -39888,13 +39893,13 @@
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B758">
         <v>41500</v>
       </c>
       <c r="C758" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D758">
         <v>415057</v>
@@ -39932,13 +39937,13 @@
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B759">
         <v>41540</v>
       </c>
       <c r="C759" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D759">
         <v>373802</v>
@@ -39976,13 +39981,13 @@
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B760">
         <v>41620</v>
       </c>
       <c r="C760" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D760">
         <v>1087873</v>
@@ -40020,13 +40025,13 @@
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B761">
         <v>41660</v>
       </c>
       <c r="C761" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D761">
         <v>111823</v>
@@ -40064,13 +40069,13 @@
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B762">
         <v>41700</v>
       </c>
       <c r="C762" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D762">
         <v>2142508</v>
@@ -40108,13 +40113,13 @@
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B763">
         <v>41740</v>
       </c>
       <c r="C763" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D763">
         <v>3095313</v>
@@ -40152,13 +40157,13 @@
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B764">
         <v>41760</v>
       </c>
       <c r="C764" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D764">
         <v>40877</v>
@@ -40196,13 +40201,13 @@
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B765">
         <v>41780</v>
       </c>
       <c r="C765" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D765">
         <v>77079</v>
@@ -40240,13 +40245,13 @@
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B766">
         <v>41820</v>
       </c>
       <c r="C766" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D766">
         <v>57866</v>
@@ -40284,13 +40289,13 @@
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B767">
         <v>41860</v>
       </c>
       <c r="C767" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D767">
         <v>4335391</v>
@@ -40328,13 +40333,13 @@
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B768">
         <v>41900</v>
       </c>
       <c r="C768" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D768">
         <v>137462</v>
@@ -40372,13 +40377,13 @@
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B769">
         <v>41940</v>
       </c>
       <c r="C769" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D769">
         <v>1836911</v>
@@ -40416,13 +40421,13 @@
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B770">
         <v>41980</v>
       </c>
       <c r="C770" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D770">
         <v>2350126</v>
@@ -40460,13 +40465,13 @@
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B771">
         <v>42020</v>
       </c>
       <c r="C771" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D771">
         <v>269637</v>
@@ -40504,13 +40509,13 @@
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B772">
         <v>42100</v>
       </c>
       <c r="C772" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D772">
         <v>262382</v>
@@ -40548,13 +40553,13 @@
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B773">
         <v>42140</v>
       </c>
       <c r="C773" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D773">
         <v>144170</v>
@@ -40592,13 +40597,13 @@
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B774">
         <v>42180</v>
       </c>
       <c r="C774" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D774">
         <v>23274</v>
@@ -40636,13 +40641,13 @@
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B775">
         <v>42200</v>
       </c>
       <c r="C775" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D775">
         <v>423895</v>
@@ -40680,13 +40685,13 @@
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B776">
         <v>42220</v>
       </c>
       <c r="C776" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D776">
         <v>483878</v>
@@ -40724,13 +40729,13 @@
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B777">
         <v>42300</v>
       </c>
       <c r="C777" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D777">
         <v>38520</v>
@@ -40768,13 +40773,13 @@
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B778">
         <v>42340</v>
       </c>
       <c r="C778" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D778">
         <v>347611</v>
@@ -40812,13 +40817,13 @@
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B779">
         <v>42380</v>
       </c>
       <c r="C779" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D779">
         <v>62622</v>
@@ -40856,13 +40861,13 @@
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B780">
         <v>42420</v>
       </c>
       <c r="C780" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D780">
         <v>38971</v>
@@ -40900,13 +40905,13 @@
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B781">
         <v>42460</v>
       </c>
       <c r="C781" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D781">
         <v>53227</v>
@@ -40944,13 +40949,13 @@
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B782">
         <v>42540</v>
       </c>
       <c r="C782" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D782">
         <v>563631</v>
@@ -40988,13 +40993,13 @@
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B783">
         <v>42620</v>
       </c>
       <c r="C783" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D783">
         <v>77076</v>
@@ -41032,13 +41037,13 @@
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B784">
         <v>42660</v>
       </c>
       <c r="C784" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D784">
         <v>3439809</v>
@@ -41076,13 +41081,13 @@
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B785">
         <v>42680</v>
       </c>
       <c r="C785" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D785">
         <v>138028</v>
@@ -41120,13 +41125,13 @@
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B786">
         <v>42700</v>
       </c>
       <c r="C786" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D786">
         <v>98786</v>
@@ -41164,13 +41169,13 @@
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B787">
         <v>42740</v>
       </c>
       <c r="C787" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D787">
         <v>42201</v>
@@ -41208,13 +41213,13 @@
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B788">
         <v>42780</v>
       </c>
       <c r="C788" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D788">
         <v>39702</v>
@@ -41252,13 +41257,13 @@
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B789">
         <v>42820</v>
       </c>
       <c r="C789" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D789">
         <v>43820</v>
@@ -41296,13 +41301,13 @@
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B790">
         <v>42860</v>
       </c>
       <c r="C790" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D790">
         <v>74273</v>
@@ -41340,13 +41345,13 @@
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B791">
         <v>42900</v>
       </c>
       <c r="C791" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D791">
         <v>35251</v>
@@ -41384,13 +41389,13 @@
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B792">
         <v>42940</v>
       </c>
       <c r="C792" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D792">
         <v>89889</v>
@@ -41428,13 +41433,13 @@
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B793">
         <v>42980</v>
       </c>
       <c r="C793" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D793">
         <v>42376</v>
@@ -41472,13 +41477,13 @@
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B794">
         <v>43020</v>
       </c>
       <c r="C794" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D794">
         <v>46181</v>
@@ -41516,13 +41521,13 @@
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B795">
         <v>43060</v>
       </c>
       <c r="C795" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D795">
         <v>69442</v>
@@ -41560,13 +41565,13 @@
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B796">
         <v>43100</v>
       </c>
       <c r="C796" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D796">
         <v>115507</v>
@@ -41604,13 +41609,13 @@
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B797">
         <v>43140</v>
       </c>
       <c r="C797" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D797">
         <v>98078</v>
@@ -41648,13 +41653,13 @@
     </row>
     <row r="798" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B798">
         <v>43180</v>
       </c>
       <c r="C798" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D798">
         <v>45058</v>
@@ -41692,13 +41697,13 @@
     </row>
     <row r="799" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B799">
         <v>43220</v>
       </c>
       <c r="C799" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D799">
         <v>60699</v>
@@ -41736,13 +41741,13 @@
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B800">
         <v>43260</v>
       </c>
       <c r="C800" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D800">
         <v>29116</v>
@@ -41780,13 +41785,13 @@
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B801">
         <v>43300</v>
       </c>
       <c r="C801" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D801">
         <v>120877</v>
@@ -41824,13 +41829,13 @@
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B802">
         <v>43320</v>
       </c>
       <c r="C802" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D802">
         <v>107449</v>
@@ -41868,13 +41873,13 @@
     </row>
     <row r="803" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B803">
         <v>43340</v>
       </c>
       <c r="C803" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D803">
         <v>439811</v>
@@ -41912,13 +41917,13 @@
     </row>
     <row r="804" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B804">
         <v>43380</v>
       </c>
       <c r="C804" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D804">
         <v>49423</v>
@@ -41956,13 +41961,13 @@
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B805">
         <v>43420</v>
       </c>
       <c r="C805" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D805">
         <v>131346</v>
@@ -42000,13 +42005,13 @@
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B806">
         <v>43460</v>
       </c>
       <c r="C806" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D806">
         <v>39191</v>
@@ -42044,13 +42049,13 @@
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B807">
         <v>43500</v>
       </c>
       <c r="C807" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D807">
         <v>29514</v>
@@ -42088,13 +42093,13 @@
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B808">
         <v>43580</v>
       </c>
       <c r="C808" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D808">
         <v>168563</v>
@@ -42132,13 +42137,13 @@
     </row>
     <row r="809" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B809">
         <v>43620</v>
       </c>
       <c r="C809" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D809">
         <v>228261</v>
@@ -42176,13 +42181,13 @@
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B810">
         <v>43660</v>
       </c>
       <c r="C810" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D810">
         <v>16921</v>
@@ -42220,13 +42225,13 @@
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B811">
         <v>43700</v>
       </c>
       <c r="C811" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D811">
         <v>63063</v>
@@ -42264,13 +42269,13 @@
     </row>
     <row r="812" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B812">
         <v>43740</v>
       </c>
       <c r="C812" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D812">
         <v>77742</v>
@@ -42308,13 +42313,13 @@
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B813">
         <v>43760</v>
       </c>
       <c r="C813" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D813">
         <v>55365</v>
@@ -42352,13 +42357,13 @@
     </row>
     <row r="814" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B814">
         <v>43780</v>
       </c>
       <c r="C814" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D814">
         <v>319224</v>
@@ -42396,13 +42401,13 @@
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B815">
         <v>43900</v>
       </c>
       <c r="C815" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D815">
         <v>313268</v>
@@ -42440,13 +42445,13 @@
     </row>
     <row r="816" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B816">
         <v>43940</v>
       </c>
       <c r="C816" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D816">
         <v>24097</v>
@@ -42484,13 +42489,13 @@
     </row>
     <row r="817" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B817">
         <v>43980</v>
       </c>
       <c r="C817" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D817">
         <v>16667</v>
@@ -42528,13 +42533,13 @@
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B818">
         <v>44020</v>
       </c>
       <c r="C818" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D818">
         <v>16667</v>
@@ -42572,13 +42577,13 @@
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B819">
         <v>44060</v>
       </c>
       <c r="C819" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D819">
         <v>527753</v>
@@ -42616,13 +42621,13 @@
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B820">
         <v>44100</v>
       </c>
       <c r="C820" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D820">
         <v>210170</v>
@@ -42660,13 +42665,13 @@
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B821">
         <v>44140</v>
       </c>
       <c r="C821" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D821">
         <v>621570</v>
@@ -42704,13 +42709,13 @@
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B822">
         <v>44180</v>
       </c>
       <c r="C822" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D822">
         <v>436712</v>
@@ -42748,13 +42753,13 @@
     </row>
     <row r="823" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B823">
         <v>44220</v>
       </c>
       <c r="C823" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D823">
         <v>138333</v>
@@ -42792,13 +42797,13 @@
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B824">
         <v>44260</v>
       </c>
       <c r="C824" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D824">
         <v>47671</v>
@@ -42836,13 +42841,13 @@
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B825">
         <v>44300</v>
       </c>
       <c r="C825" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D825">
         <v>153990</v>
@@ -42880,13 +42885,13 @@
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B826">
         <v>44340</v>
       </c>
       <c r="C826" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D826">
         <v>70217</v>
@@ -42924,13 +42929,13 @@
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B827">
         <v>44420</v>
       </c>
       <c r="C827" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D827">
         <v>118502</v>
@@ -42968,13 +42973,13 @@
     </row>
     <row r="828" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B828">
         <v>44460</v>
       </c>
       <c r="C828" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D828">
         <v>23509</v>
@@ -43012,13 +43017,13 @@
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B829">
         <v>44500</v>
       </c>
       <c r="C829" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D829">
         <v>37890</v>
@@ -43056,13 +43061,13 @@
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B830">
         <v>44540</v>
       </c>
       <c r="C830" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D830">
         <v>22709</v>
@@ -43100,13 +43105,13 @@
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B831">
         <v>44580</v>
       </c>
       <c r="C831" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D831">
         <v>58498</v>
@@ -43144,13 +43149,13 @@
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B832">
         <v>44620</v>
       </c>
       <c r="C832" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D832">
         <v>70019</v>
@@ -43188,13 +43193,13 @@
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B833">
         <v>44660</v>
       </c>
       <c r="C833" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D833">
         <v>77350</v>
@@ -43232,13 +43237,13 @@
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B834">
         <v>44700</v>
       </c>
       <c r="C834" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D834">
         <v>685306</v>
@@ -43276,13 +43281,13 @@
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B835">
         <v>44740</v>
       </c>
       <c r="C835" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D835">
         <v>20260</v>
@@ -43320,13 +43325,13 @@
     </row>
     <row r="836" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B836">
         <v>44780</v>
       </c>
       <c r="C836" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D836">
         <v>61295</v>
@@ -43364,13 +43369,13 @@
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B837">
         <v>44860</v>
       </c>
       <c r="C837" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D837">
         <v>35161</v>
@@ -43408,13 +43413,13 @@
     </row>
     <row r="838" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B838">
         <v>44900</v>
       </c>
       <c r="C838" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D838">
         <v>26015</v>
@@ -43452,13 +43457,13 @@
     </row>
     <row r="839" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B839">
         <v>44920</v>
       </c>
       <c r="C839" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D839">
         <v>36324</v>
@@ -43496,13 +43501,13 @@
     </row>
     <row r="840" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B840">
         <v>44940</v>
       </c>
       <c r="C840" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D840">
         <v>107456</v>
@@ -43540,13 +43545,13 @@
     </row>
     <row r="841" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B841">
         <v>44980</v>
       </c>
       <c r="C841" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D841">
         <v>94528</v>
@@ -43584,13 +43589,13 @@
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B842">
         <v>45000</v>
       </c>
       <c r="C842" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D842">
         <v>34895</v>
@@ -43628,13 +43633,13 @@
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B843">
         <v>45020</v>
       </c>
       <c r="C843" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D843">
         <v>15216</v>
@@ -43672,13 +43677,13 @@
     </row>
     <row r="844" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B844">
         <v>45060</v>
       </c>
       <c r="C844" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D844">
         <v>662577</v>
@@ -43716,13 +43721,13 @@
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B845">
         <v>45140</v>
       </c>
       <c r="C845" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D845">
         <v>46987</v>
@@ -43760,13 +43765,13 @@
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B846">
         <v>45180</v>
       </c>
       <c r="C846" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D846">
         <v>93830</v>
@@ -43804,13 +43809,13 @@
     </row>
     <row r="847" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B847">
         <v>45220</v>
       </c>
       <c r="C847" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D847">
         <v>367413</v>
@@ -43848,13 +43853,13 @@
     </row>
     <row r="848" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B848">
         <v>45300</v>
       </c>
       <c r="C848" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D848">
         <v>2783243</v>
@@ -43892,13 +43897,13 @@
     </row>
     <row r="849" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B849">
         <v>45340</v>
       </c>
       <c r="C849" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D849">
         <v>32937</v>
@@ -43936,13 +43941,13 @@
     </row>
     <row r="850" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B850">
         <v>45380</v>
       </c>
       <c r="C850" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D850">
         <v>34800</v>
@@ -43980,13 +43985,13 @@
     </row>
     <row r="851" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B851">
         <v>45460</v>
       </c>
       <c r="C851" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D851">
         <v>172425</v>
@@ -44024,13 +44029,13 @@
     </row>
     <row r="852" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B852">
         <v>45500</v>
       </c>
       <c r="C852" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D852">
         <v>149198</v>
@@ -44068,13 +44073,13 @@
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B853">
         <v>45520</v>
       </c>
       <c r="C853" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D853">
         <v>25213</v>
@@ -44112,13 +44117,13 @@
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B854">
         <v>45540</v>
       </c>
       <c r="C854" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D854">
         <v>93420</v>
@@ -44156,13 +44161,13 @@
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B855">
         <v>45580</v>
       </c>
       <c r="C855" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D855">
         <v>27153</v>
@@ -44200,13 +44205,13 @@
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B856">
         <v>45620</v>
       </c>
       <c r="C856" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D856">
         <v>44720</v>
@@ -44244,13 +44249,13 @@
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B857">
         <v>45660</v>
       </c>
       <c r="C857" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D857">
         <v>56745</v>
@@ -44288,13 +44293,13 @@
     </row>
     <row r="858" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B858">
         <v>45700</v>
       </c>
       <c r="C858" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D858">
         <v>40118</v>
@@ -44332,13 +44337,13 @@
     </row>
     <row r="859" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B859">
         <v>45740</v>
       </c>
       <c r="C859" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D859">
         <v>26175</v>
@@ -44376,13 +44381,13 @@
     </row>
     <row r="860" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B860">
         <v>45780</v>
       </c>
       <c r="C860" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D860">
         <v>610001</v>
@@ -44420,13 +44425,13 @@
     </row>
     <row r="861" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B861">
         <v>45820</v>
       </c>
       <c r="C861" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D861">
         <v>233870</v>
@@ -44464,13 +44469,13 @@
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B862">
         <v>45860</v>
       </c>
       <c r="C862" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D862">
         <v>189927</v>
@@ -44508,13 +44513,13 @@
     </row>
     <row r="863" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B863">
         <v>45900</v>
       </c>
       <c r="C863" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D863">
         <v>143372</v>
@@ -44552,13 +44557,13 @@
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B864">
         <v>45940</v>
       </c>
       <c r="C864" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D864">
         <v>366513</v>
@@ -44596,13 +44601,13 @@
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B865">
         <v>45980</v>
       </c>
       <c r="C865" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D865">
         <v>32899</v>
@@ -44640,13 +44645,13 @@
     </row>
     <row r="866" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B866">
         <v>46020</v>
       </c>
       <c r="C866" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D866">
         <v>98764</v>
@@ -44684,13 +44689,13 @@
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B867">
         <v>46060</v>
       </c>
       <c r="C867" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D867">
         <v>980263</v>
@@ -44728,13 +44733,13 @@
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B868">
         <v>46100</v>
       </c>
       <c r="C868" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D868">
         <v>100210</v>
@@ -44772,13 +44777,13 @@
     </row>
     <row r="869" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B869">
         <v>46140</v>
       </c>
       <c r="C869" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D869">
         <v>937478</v>
@@ -44816,13 +44821,13 @@
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B870">
         <v>46180</v>
       </c>
       <c r="C870" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D870">
         <v>136268</v>
@@ -44860,13 +44865,13 @@
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B871">
         <v>46220</v>
       </c>
       <c r="C871" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D871">
         <v>230162</v>
@@ -44904,13 +44909,13 @@
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B872">
         <v>46300</v>
       </c>
       <c r="C872" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D872">
         <v>99604</v>
@@ -44948,13 +44953,13 @@
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B873">
         <v>46340</v>
       </c>
       <c r="C873" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D873">
         <v>209714</v>
@@ -44992,13 +44997,13 @@
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B874">
         <v>46380</v>
       </c>
       <c r="C874" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D874">
         <v>87841</v>
@@ -45036,13 +45041,13 @@
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B875">
         <v>46460</v>
       </c>
       <c r="C875" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D875">
         <v>38620</v>
@@ -45080,13 +45085,13 @@
     </row>
     <row r="876" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B876">
         <v>46500</v>
       </c>
       <c r="C876" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D876">
         <v>40097</v>
@@ -45124,13 +45129,13 @@
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B877">
         <v>46520</v>
       </c>
       <c r="C877" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D877">
         <v>953207</v>
@@ -45168,13 +45173,13 @@
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B878">
         <v>46540</v>
       </c>
       <c r="C878" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D878">
         <v>299397</v>
@@ -45212,13 +45217,13 @@
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B879">
         <v>46620</v>
       </c>
       <c r="C879" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D879">
         <v>26405</v>
@@ -45256,13 +45261,13 @@
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B880">
         <v>46660</v>
       </c>
       <c r="C880" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D880">
         <v>139588</v>
@@ -45300,13 +45305,13 @@
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B881">
         <v>46700</v>
       </c>
       <c r="C881" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D881">
         <v>413344</v>
@@ -45344,13 +45349,13 @@
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B882">
         <v>46740</v>
       </c>
       <c r="C882" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D882">
         <v>34215</v>
@@ -45388,13 +45393,13 @@
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B883">
         <v>46780</v>
       </c>
       <c r="C883" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D883">
         <v>28744</v>
@@ -45432,13 +45437,13 @@
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B884">
         <v>46820</v>
       </c>
       <c r="C884" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D884">
         <v>13864</v>
@@ -45476,13 +45481,13 @@
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B885">
         <v>46860</v>
       </c>
       <c r="C885" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D885">
         <v>32588</v>
@@ -45520,13 +45525,13 @@
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B886">
         <v>46900</v>
       </c>
       <c r="C886" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D886">
         <v>13535</v>
@@ -45564,13 +45569,13 @@
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B887">
         <v>46980</v>
       </c>
       <c r="C887" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D887">
         <v>58377</v>
@@ -45608,13 +45613,13 @@
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B888">
         <v>47020</v>
       </c>
       <c r="C888" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D888">
         <v>94003</v>
@@ -45652,13 +45657,13 @@
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B889">
         <v>47080</v>
       </c>
       <c r="C889" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D889">
         <v>36346</v>
@@ -45696,13 +45701,13 @@
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B890">
         <v>47180</v>
       </c>
       <c r="C890" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D890">
         <v>38440</v>
@@ -45740,13 +45745,13 @@
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B891">
         <v>47220</v>
       </c>
       <c r="C891" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D891">
         <v>156898</v>
@@ -45784,13 +45789,13 @@
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B892">
         <v>47240</v>
       </c>
       <c r="C892" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D892">
         <v>16535</v>
@@ -45828,13 +45833,13 @@
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B893">
         <v>47260</v>
       </c>
       <c r="C893" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D893">
         <v>1676822</v>
@@ -45872,13 +45877,13 @@
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B894">
         <v>47300</v>
       </c>
       <c r="C894" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D894">
         <v>442179</v>
@@ -45916,13 +45921,13 @@
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B895">
         <v>47340</v>
       </c>
       <c r="C895" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D895">
         <v>32888</v>
@@ -45960,13 +45965,13 @@
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B896">
         <v>47380</v>
       </c>
       <c r="C896" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D896">
         <v>252772</v>
@@ -46004,13 +46009,13 @@
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B897">
         <v>47420</v>
       </c>
       <c r="C897" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D897">
         <v>22897</v>
@@ -46048,13 +46053,13 @@
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B898">
         <v>47460</v>
       </c>
       <c r="C898" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D898">
         <v>62859</v>
@@ -46092,13 +46097,13 @@
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B899">
         <v>47540</v>
       </c>
       <c r="C899" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D899">
         <v>45949</v>
@@ -46136,13 +46141,13 @@
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B900">
         <v>47580</v>
       </c>
       <c r="C900" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D900">
         <v>179605</v>
@@ -46180,13 +46185,13 @@
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B901">
         <v>47620</v>
       </c>
       <c r="C901" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D901">
         <v>41815</v>
@@ -46224,13 +46229,13 @@
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B902">
         <v>47660</v>
       </c>
       <c r="C902" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D902">
         <v>52595</v>
@@ -46268,13 +46273,13 @@
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B903">
         <v>47700</v>
       </c>
       <c r="C903" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D903">
         <v>77358</v>
@@ -46312,13 +46317,13 @@
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B904">
         <v>47780</v>
       </c>
       <c r="C904" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D904">
         <v>31648</v>
@@ -46356,13 +46361,13 @@
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B905">
         <v>47820</v>
       </c>
       <c r="C905" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D905">
         <v>47759</v>
@@ -46400,13 +46405,13 @@
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B906">
         <v>47900</v>
       </c>
       <c r="C906" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D906">
         <v>5636232</v>
@@ -46444,13 +46449,13 @@
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B907">
         <v>47920</v>
       </c>
       <c r="C907" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D907">
         <v>29030</v>
@@ -46488,13 +46493,13 @@
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B908">
         <v>47940</v>
       </c>
       <c r="C908" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D908">
         <v>167819</v>
@@ -46532,13 +46537,13 @@
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B909">
         <v>47980</v>
       </c>
       <c r="C909" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D909">
         <v>27227</v>
@@ -46576,13 +46581,13 @@
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B910">
         <v>48020</v>
       </c>
       <c r="C910" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D910">
         <v>83686</v>
@@ -46620,13 +46625,13 @@
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B911">
         <v>48060</v>
       </c>
       <c r="C911" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D911">
         <v>116229</v>
@@ -46664,13 +46669,13 @@
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B912">
         <v>48100</v>
       </c>
       <c r="C912" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D912">
         <v>27731</v>
@@ -46708,13 +46713,13 @@
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B913">
         <v>48140</v>
       </c>
       <c r="C913" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D913">
         <v>134063</v>
@@ -46752,13 +46757,13 @@
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B914">
         <v>48180</v>
       </c>
       <c r="C914" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D914">
         <v>55070</v>
@@ -46796,13 +46801,13 @@
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B915">
         <v>48220</v>
       </c>
       <c r="C915" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D915">
         <v>27469</v>
@@ -46840,13 +46845,13 @@
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B916">
         <v>48260</v>
       </c>
       <c r="C916" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D916">
         <v>124454</v>
@@ -46884,13 +46889,13 @@
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B917">
         <v>48300</v>
       </c>
       <c r="C917" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D917">
         <v>110884</v>
@@ -46928,13 +46933,13 @@
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B918">
         <v>48460</v>
       </c>
       <c r="C918" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D918">
         <v>40400</v>
@@ -46972,13 +46977,13 @@
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B919">
         <v>48500</v>
       </c>
       <c r="C919" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D919">
         <v>20634</v>
@@ -47016,13 +47021,13 @@
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B920">
         <v>48540</v>
       </c>
       <c r="C920" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D920">
         <v>147950</v>
@@ -47060,13 +47065,13 @@
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B921">
         <v>48580</v>
       </c>
       <c r="C921" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D921">
         <v>102228</v>
@@ -47104,13 +47109,13 @@
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B922">
         <v>48620</v>
       </c>
       <c r="C922" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D922">
         <v>630919</v>
@@ -47148,13 +47153,13 @@
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B923">
         <v>48660</v>
       </c>
       <c r="C923" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D923">
         <v>151306</v>
@@ -47192,13 +47197,13 @@
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B924">
         <v>48700</v>
       </c>
       <c r="C924" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D924">
         <v>116111</v>
@@ -47236,13 +47241,13 @@
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B925">
         <v>48780</v>
       </c>
       <c r="C925" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D925">
         <v>22398</v>
@@ -47280,13 +47285,13 @@
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B926">
         <v>48820</v>
       </c>
       <c r="C926" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D926">
         <v>42239</v>
@@ -47324,13 +47329,13 @@
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B927">
         <v>48900</v>
       </c>
       <c r="C927" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D927">
         <v>254884</v>
@@ -47368,13 +47373,13 @@
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B928">
         <v>48940</v>
       </c>
       <c r="C928" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D928">
         <v>42040</v>
@@ -47412,13 +47417,13 @@
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B929">
         <v>48980</v>
       </c>
       <c r="C929" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D929">
         <v>81234</v>
@@ -47456,13 +47461,13 @@
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B930">
         <v>49020</v>
       </c>
       <c r="C930" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D930">
         <v>128472</v>
@@ -47500,13 +47505,13 @@
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B931">
         <v>49080</v>
       </c>
       <c r="C931" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D931">
         <v>16528</v>
@@ -47544,13 +47549,13 @@
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B932">
         <v>49100</v>
       </c>
       <c r="C932" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D932">
         <v>51461</v>
@@ -47588,13 +47593,13 @@
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B933">
         <v>49180</v>
       </c>
       <c r="C933" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D933">
         <v>640595</v>
@@ -47632,13 +47637,13 @@
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B934">
         <v>49220</v>
       </c>
       <c r="C934" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D934">
         <v>74749</v>
@@ -47676,13 +47681,13 @@
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B935">
         <v>49260</v>
       </c>
       <c r="C935" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D935">
         <v>20081</v>
@@ -47720,13 +47725,13 @@
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B936">
         <v>49300</v>
       </c>
       <c r="C936" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D936">
         <v>114520</v>
@@ -47764,13 +47769,13 @@
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B937">
         <v>49340</v>
       </c>
       <c r="C937" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D937">
         <v>916980</v>
@@ -47808,13 +47813,13 @@
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B938">
         <v>49380</v>
       </c>
       <c r="C938" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D938">
         <v>21378</v>
@@ -47852,13 +47857,13 @@
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B939">
         <v>49420</v>
       </c>
       <c r="C939" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D939">
         <v>243231</v>
@@ -47896,13 +47901,13 @@
     </row>
     <row r="940" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B940">
         <v>49460</v>
       </c>
       <c r="C940" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D940">
         <v>22438</v>
@@ -47940,13 +47945,13 @@
     </row>
     <row r="941" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B941">
         <v>49620</v>
       </c>
       <c r="C941" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D941">
         <v>434972</v>
@@ -47984,13 +47989,13 @@
     </row>
     <row r="942" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B942">
         <v>49660</v>
       </c>
       <c r="C942" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D942">
         <v>565773</v>
@@ -48028,13 +48033,13 @@
     </row>
     <row r="943" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B943">
         <v>49700</v>
       </c>
       <c r="C943" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D943">
         <v>166892</v>
@@ -48072,13 +48077,13 @@
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B944">
         <v>49740</v>
       </c>
       <c r="C944" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D944">
         <v>195751</v>
@@ -48116,13 +48121,13 @@
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B945">
         <v>49780</v>
       </c>
       <c r="C945" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D945">
         <v>86074</v>
@@ -48160,13 +48165,13 @@
     </row>
     <row r="946" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B946">
         <v>49820</v>
       </c>
       <c r="C946" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D946">
         <v>14018</v>
@@ -48203,6 +48208,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N946" xr:uid="{5250BBE4-2999-4074-94BA-44ADFAEF3015}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>